--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -581,7 +581,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>prueba.txt</t>
+          <t>main.py</t>
         </is>
       </c>
     </row>
